--- a/MATLAB/R14_Animals.xlsx
+++ b/MATLAB/R14_Animals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Encoder_Modeling\Encoder_Analysis\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0F4EF5-E39D-4A58-877A-D7B292227646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C58C30E-803B-4794-B248-AE9B87D077E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23100" yWindow="2310" windowWidth="17445" windowHeight="10050" xr2:uid="{F5EF9EA6-BBBC-4D15-B659-40C90B8652D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EF9EA6-BBBC-4D15-B659-40C90B8652D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>TD13d</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>TD1d</t>
-  </si>
-  <si>
-    <t>TD4d</t>
   </si>
   <si>
     <t>TD3d</t>
@@ -471,7 +468,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,222 +490,154 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45606</v>
+        <v>45608</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45607</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45620</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45617</v>
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45621</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45618</v>
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45622</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45608</v>
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44978</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>45609</v>
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44979</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4">
-        <v>45619</v>
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44980</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4">
-        <v>45620</v>
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44981</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4">
-        <v>45621</v>
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10">
+        <v>45028</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4">
-        <v>45622</v>
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>45029</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6">
-        <v>44978</v>
+      <c r="A12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="10">
+        <v>45030</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="6">
-        <v>44979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6">
-        <v>44980</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6">
-        <v>44981</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="8">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="8">
-        <v>44981</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8">
-        <v>44982</v>
-      </c>
+      <c r="B13" s="10">
+        <v>45031</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8">
-        <v>45004</v>
-      </c>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="10">
-        <v>45028</v>
-      </c>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="10">
-        <v>45029</v>
-      </c>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="10">
-        <v>45030</v>
-      </c>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E22" s="3"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="10">
-        <v>45031</v>
-      </c>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E23" s="3"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E25" s="3"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E29" s="5"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E30" s="7"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E31" s="7"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E32" s="7"/>
       <c r="F32" s="8"/>
     </row>

--- a/MATLAB/R14_Animals.xlsx
+++ b/MATLAB/R14_Animals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Encoder_Modeling\Encoder_Analysis\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C58C30E-803B-4794-B248-AE9B87D077E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF828FB7-A56E-4F99-B622-B75B62AD67A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5EF9EA6-BBBC-4D15-B659-40C90B8652D6}"/>
+    <workbookView xWindow="2256" yWindow="1488" windowWidth="17280" windowHeight="8880" xr2:uid="{F5EF9EA6-BBBC-4D15-B659-40C90B8652D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
-  <si>
-    <t>TD13d</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>anm</t>
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>TD15d</t>
-  </si>
-  <si>
-    <t>TD1d</t>
   </si>
   <si>
     <t>TD3d</t>
@@ -468,7 +459,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -479,107 +470,59 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45608</v>
+      <c r="B2" s="10">
+        <v>45028</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4">
-        <v>45620</v>
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>45029</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45621</v>
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>45030</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>45622</v>
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10">
+        <v>45031</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>44978</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>44979</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6">
-        <v>44980</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6">
-        <v>44981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="10">
-        <v>45028</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10">
-        <v>45029</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="10">
-        <v>45030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="10">
-        <v>45031</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E18" s="1"/>
